--- a/sprint2/Sprint List.xlsx
+++ b/sprint2/Sprint List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UD SYSTEMS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E388885-63BA-45EF-A671-92AADEA5E922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA39D24-9DA8-4258-B794-1B99EE6E973E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF59DB0B-1D8B-44B2-A064-D433988062C2}"/>
   </bookViews>
@@ -795,7 +795,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E12" sqref="E12:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -938,7 +938,7 @@
         <v>15</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -955,7 +955,7 @@
         <v>17</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -972,7 +972,7 @@
         <v>19</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -989,7 +989,7 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1008,6 +1008,9 @@
       <c r="E12">
         <v>2</v>
       </c>
+      <c r="F12" s="6" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -1023,10 +1026,7 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1043,7 +1043,7 @@
         <v>27</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1060,7 +1060,7 @@
         <v>29</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1077,7 +1077,7 @@
         <v>31</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1094,7 +1094,7 @@
         <v>33</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1111,7 +1111,7 @@
         <v>35</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1128,7 +1128,7 @@
         <v>37</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1145,7 +1145,7 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1162,7 +1162,10 @@
         <v>41</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1179,7 +1182,7 @@
         <v>43</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1196,10 +1199,7 @@
         <v>45</v>
       </c>
       <c r="E23">
-        <v>5</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1216,7 +1216,7 @@
         <v>47</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1233,7 +1233,7 @@
         <v>49</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1250,7 +1250,7 @@
         <v>51</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1267,7 +1267,7 @@
         <v>53</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1284,7 +1284,7 @@
         <v>55</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1301,7 +1301,7 @@
         <v>57</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1318,7 +1318,10 @@
         <v>59</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1335,7 +1338,7 @@
         <v>61</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1352,7 +1355,7 @@
         <v>63</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1369,10 +1372,7 @@
         <v>65</v>
       </c>
       <c r="E33">
-        <v>7</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1389,7 +1389,7 @@
         <v>67</v>
       </c>
       <c r="E34">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1406,7 +1406,7 @@
         <v>69</v>
       </c>
       <c r="E35">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1423,7 +1423,7 @@
         <v>71</v>
       </c>
       <c r="E36">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1440,7 +1440,7 @@
         <v>73</v>
       </c>
       <c r="E37">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1457,10 +1457,7 @@
         <v>75</v>
       </c>
       <c r="E38">
-        <v>8</v>
-      </c>
-      <c r="F38" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1477,7 +1474,10 @@
         <v>77</v>
       </c>
       <c r="E39">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="F39" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1494,7 +1494,7 @@
         <v>79</v>
       </c>
       <c r="E40">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1511,7 +1511,7 @@
         <v>81</v>
       </c>
       <c r="E41">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1528,7 +1528,7 @@
         <v>83</v>
       </c>
       <c r="E42">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1545,7 +1545,7 @@
         <v>85</v>
       </c>
       <c r="E43">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1562,7 +1562,7 @@
         <v>87</v>
       </c>
       <c r="E44">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1579,7 +1579,7 @@
         <v>89</v>
       </c>
       <c r="E45">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1596,7 +1596,7 @@
         <v>91</v>
       </c>
       <c r="E46">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1613,7 +1613,7 @@
         <v>93</v>
       </c>
       <c r="E47">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1630,7 +1630,7 @@
         <v>95</v>
       </c>
       <c r="E48">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
